--- a/data/trans_bre/P36B14_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Estudios-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 5,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 9,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 5,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 14,34</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 3,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 10,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 5,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 16,57</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 4,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 8,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 5,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 11,47</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 4,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 8,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 4,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,96; 12,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B14_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 5,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 14,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 16,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 5,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 11,47</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,12</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
